--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H2">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I2">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J2">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>3.571051115995444</v>
+        <v>9.399434724927223</v>
       </c>
       <c r="R2">
-        <v>3.571051115995444</v>
+        <v>84.59491252434501</v>
       </c>
       <c r="S2">
-        <v>0.001258606360811412</v>
+        <v>0.002850443844985749</v>
       </c>
       <c r="T2">
-        <v>0.001258606360811412</v>
+        <v>0.002850443844985749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H3">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I3">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J3">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>23.21206727251005</v>
+        <v>33.25147352709779</v>
       </c>
       <c r="R3">
-        <v>23.21206727251005</v>
+        <v>299.26326174388</v>
       </c>
       <c r="S3">
-        <v>0.008181024176860546</v>
+        <v>0.01008374022755462</v>
       </c>
       <c r="T3">
-        <v>0.008181024176860546</v>
+        <v>0.01008374022755462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H4">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I4">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J4">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>6.616653576348742</v>
+        <v>13.00340767354289</v>
       </c>
       <c r="R4">
-        <v>6.616653576348742</v>
+        <v>117.030669061886</v>
       </c>
       <c r="S4">
-        <v>0.002332019903377024</v>
+        <v>0.003943373665715602</v>
       </c>
       <c r="T4">
-        <v>0.002332019903377024</v>
+        <v>0.003943373665715602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H5">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I5">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J5">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>6.713384997310077</v>
+        <v>9.622561393576445</v>
       </c>
       <c r="R5">
-        <v>6.713384997310077</v>
+        <v>86.60305254218801</v>
       </c>
       <c r="S5">
-        <v>0.002366112605429631</v>
+        <v>0.002918108556525971</v>
       </c>
       <c r="T5">
-        <v>0.002366112605429631</v>
+        <v>0.002918108556525972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H6">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I6">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J6">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>6.507292474766717</v>
+        <v>9.759188347562</v>
       </c>
       <c r="R6">
-        <v>6.507292474766717</v>
+        <v>87.83269512805801</v>
       </c>
       <c r="S6">
-        <v>0.002293475907896267</v>
+        <v>0.002959541628986644</v>
       </c>
       <c r="T6">
-        <v>0.002293475907896267</v>
+        <v>0.002959541628986644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.270931634961322</v>
+        <v>0.3846876666666667</v>
       </c>
       <c r="H7">
-        <v>0.270931634961322</v>
+        <v>1.154063</v>
       </c>
       <c r="I7">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="J7">
-        <v>0.01722264421482191</v>
+        <v>0.02380341367695061</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>2.245458728416127</v>
+        <v>3.456493827324223</v>
       </c>
       <c r="R7">
-        <v>2.245458728416127</v>
+        <v>31.108444445918</v>
       </c>
       <c r="S7">
-        <v>0.0007914052604470334</v>
+        <v>0.001048205753182019</v>
       </c>
       <c r="T7">
-        <v>0.0007914052604470334</v>
+        <v>0.001048205753182019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H8">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I8">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J8">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>188.5101650679098</v>
+        <v>349.7116383069056</v>
       </c>
       <c r="R8">
-        <v>188.5101650679098</v>
+        <v>3147.40474476215</v>
       </c>
       <c r="S8">
-        <v>0.06643984785581639</v>
+        <v>0.1060524825272958</v>
       </c>
       <c r="T8">
-        <v>0.06643984785581639</v>
+        <v>0.1060524825272958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H9">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I9">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J9">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>1225.328479200038</v>
+        <v>1237.141128544845</v>
       </c>
       <c r="R9">
-        <v>1225.328479200038</v>
+        <v>11134.2701569036</v>
       </c>
       <c r="S9">
-        <v>0.4318633836118155</v>
+        <v>0.3751716372780789</v>
       </c>
       <c r="T9">
-        <v>0.4318633836118155</v>
+        <v>0.375171637278079</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H10">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I10">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J10">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>349.2827230301311</v>
+        <v>483.7996256336022</v>
       </c>
       <c r="R10">
-        <v>349.2827230301311</v>
+        <v>4354.196630702419</v>
       </c>
       <c r="S10">
-        <v>0.1231036584601537</v>
+        <v>0.1467155957194424</v>
       </c>
       <c r="T10">
-        <v>0.1231036584601537</v>
+        <v>0.1467155957194425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H11">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I11">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J11">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>354.3890224194054</v>
+        <v>358.0132005951511</v>
       </c>
       <c r="R11">
-        <v>354.3890224194054</v>
+        <v>3222.11880535636</v>
       </c>
       <c r="S11">
-        <v>0.124903358515625</v>
+        <v>0.1085699889328183</v>
       </c>
       <c r="T11">
-        <v>0.124903358515625</v>
+        <v>0.1085699889328183</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H12">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I12">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J12">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>343.5097226888886</v>
+        <v>363.09648882614</v>
       </c>
       <c r="R12">
-        <v>343.5097226888886</v>
+        <v>3267.86839943526</v>
       </c>
       <c r="S12">
-        <v>0.1210689816340762</v>
+        <v>0.1101115313845026</v>
       </c>
       <c r="T12">
-        <v>0.1210689816340762</v>
+        <v>0.1101115313845026</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.3020543727055</v>
+        <v>14.31253666666667</v>
       </c>
       <c r="H13">
-        <v>14.3020543727055</v>
+        <v>42.93761</v>
       </c>
       <c r="I13">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253849</v>
       </c>
       <c r="J13">
-        <v>0.9091562675481184</v>
+        <v>0.8856203631253851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>118.534230342124</v>
+        <v>128.6009376654956</v>
       </c>
       <c r="R13">
-        <v>118.534230342124</v>
+        <v>1157.40843898946</v>
       </c>
       <c r="S13">
-        <v>0.04177703747063159</v>
+        <v>0.03899912728324692</v>
       </c>
       <c r="T13">
-        <v>0.04177703747063159</v>
+        <v>0.03899912728324692</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H14">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I14">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J14">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>3.230157413709046</v>
+        <v>6.526272350248888</v>
       </c>
       <c r="R14">
-        <v>3.230157413709046</v>
+        <v>58.73645115224001</v>
       </c>
       <c r="S14">
-        <v>0.001138459387799347</v>
+        <v>0.001979137405160464</v>
       </c>
       <c r="T14">
-        <v>0.001138459387799347</v>
+        <v>0.001979137405160464</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H15">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I15">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J15">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>20.99623577270215</v>
+        <v>23.08736414855111</v>
       </c>
       <c r="R15">
-        <v>20.99623577270215</v>
+        <v>207.78627733696</v>
       </c>
       <c r="S15">
-        <v>0.007400060945151914</v>
+        <v>0.007001403484366632</v>
       </c>
       <c r="T15">
-        <v>0.007400060945151914</v>
+        <v>0.007001403484366632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H16">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I16">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J16">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>5.985025671532458</v>
+        <v>9.028604638723554</v>
       </c>
       <c r="R16">
-        <v>5.985025671532458</v>
+        <v>81.25744174851201</v>
       </c>
       <c r="S16">
-        <v>0.002109404524082416</v>
+        <v>0.002737987046498544</v>
       </c>
       <c r="T16">
-        <v>0.002109404524082416</v>
+        <v>0.002737987046498544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H17">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I17">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J17">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>6.072523079552552</v>
+        <v>6.681195007921778</v>
       </c>
       <c r="R17">
-        <v>6.072523079552552</v>
+        <v>60.130755071296</v>
       </c>
       <c r="S17">
-        <v>0.002140242725696313</v>
+        <v>0.00202611877679991</v>
       </c>
       <c r="T17">
-        <v>0.002140242725696313</v>
+        <v>0.00202611877679991</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H18">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I18">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J18">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>5.886104216316017</v>
+        <v>6.776058660704</v>
       </c>
       <c r="R18">
-        <v>5.886104216316017</v>
+        <v>60.984527946336</v>
       </c>
       <c r="S18">
-        <v>0.002074539950960384</v>
+        <v>0.002054886838188628</v>
       </c>
       <c r="T18">
-        <v>0.002074539950960384</v>
+        <v>0.002054886838188628</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.245068412871115</v>
+        <v>0.2670986666666667</v>
       </c>
       <c r="H19">
-        <v>0.245068412871115</v>
+        <v>0.801296</v>
       </c>
       <c r="I19">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="J19">
-        <v>0.01557856499028932</v>
+        <v>0.0165273301073562</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>2.031106507068071</v>
+        <v>2.399933693272889</v>
       </c>
       <c r="R19">
-        <v>2.031106507068071</v>
+        <v>21.599403239456</v>
       </c>
       <c r="S19">
-        <v>0.0007158574565989454</v>
+        <v>0.0007277965563420186</v>
       </c>
       <c r="T19">
-        <v>0.0007158574565989454</v>
+        <v>0.0007277965563420186</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H20">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I20">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J20">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>12.0349009612119</v>
+        <v>3.973194567737222</v>
       </c>
       <c r="R20">
-        <v>12.0349009612119</v>
+        <v>35.758751109635</v>
       </c>
       <c r="S20">
-        <v>0.00424166510349554</v>
+        <v>0.001204898840406072</v>
       </c>
       <c r="T20">
-        <v>0.00424166510349554</v>
+        <v>0.001204898840406072</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H21">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I21">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J21">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>78.22764829054405</v>
+        <v>14.05558715533778</v>
       </c>
       <c r="R21">
-        <v>78.22764829054405</v>
+        <v>126.50028439804</v>
       </c>
       <c r="S21">
-        <v>0.02757110232580675</v>
+        <v>0.004262454399341927</v>
       </c>
       <c r="T21">
-        <v>0.02757110232580675</v>
+        <v>0.004262454399341928</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H22">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I22">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J22">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>22.29897245920778</v>
+        <v>5.496614449970888</v>
       </c>
       <c r="R22">
-        <v>22.29897245920778</v>
+        <v>49.469530049738</v>
       </c>
       <c r="S22">
-        <v>0.007859206621547902</v>
+        <v>0.001666886497506961</v>
       </c>
       <c r="T22">
-        <v>0.007859206621547902</v>
+        <v>0.001666886497506961</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H23">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I23">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J23">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>22.62496977296577</v>
+        <v>4.067511480800444</v>
       </c>
       <c r="R23">
-        <v>22.62496977296577</v>
+        <v>36.607603327204</v>
       </c>
       <c r="S23">
-        <v>0.007974103406661229</v>
+        <v>0.001233501099178734</v>
       </c>
       <c r="T23">
-        <v>0.007974103406661229</v>
+        <v>0.001233501099178735</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.913074410896471</v>
+        <v>0.1626096666666667</v>
       </c>
       <c r="H24">
-        <v>0.913074410896471</v>
+        <v>0.487829</v>
       </c>
       <c r="I24">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="J24">
-        <v>0.05804252324677036</v>
+        <v>0.01006183847035486</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>21.93041149947987</v>
+        <v>4.125264472046</v>
       </c>
       <c r="R24">
-        <v>21.93041149947987</v>
+        <v>37.127380248414</v>
       </c>
       <c r="S24">
-        <v>0.007729308405814579</v>
+        <v>0.001251015094779857</v>
       </c>
       <c r="T24">
-        <v>0.007729308405814579</v>
+        <v>0.001251015094779857</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1626096666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.487829</v>
+      </c>
+      <c r="I25">
+        <v>0.01006183847035486</v>
+      </c>
+      <c r="J25">
+        <v>0.01006183847035486</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N25">
+        <v>26.955586</v>
+      </c>
+      <c r="O25">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P25">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q25">
+        <v>1.461079618088222</v>
+      </c>
+      <c r="R25">
+        <v>13.149716562794</v>
+      </c>
+      <c r="S25">
+        <v>0.0004430825391413043</v>
+      </c>
+      <c r="T25">
+        <v>0.0004430825391413044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.343811</v>
+      </c>
+      <c r="I26">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J26">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.43393833333333</v>
+      </c>
+      <c r="N26">
+        <v>73.301815</v>
+      </c>
+      <c r="O26">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="P26">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="Q26">
+        <v>2.800218924107222</v>
+      </c>
+      <c r="R26">
+        <v>25.201970316965</v>
+      </c>
+      <c r="S26">
+        <v>0.0008491858319592563</v>
+      </c>
+      <c r="T26">
+        <v>0.0008491858319592564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.343811</v>
+      </c>
+      <c r="I27">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J27">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N27">
+        <v>259.31276</v>
+      </c>
+      <c r="O27">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="P27">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="Q27">
+        <v>9.906064369817779</v>
+      </c>
+      <c r="R27">
+        <v>89.15457932836</v>
+      </c>
+      <c r="S27">
+        <v>0.003004082802564315</v>
+      </c>
+      <c r="T27">
+        <v>0.003004082802564316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.343811</v>
+      </c>
+      <c r="I28">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J28">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>33.80250733333333</v>
+      </c>
+      <c r="N28">
+        <v>101.407522</v>
+      </c>
+      <c r="O28">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="P28">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="Q28">
+        <v>3.873891282926889</v>
+      </c>
+      <c r="R28">
+        <v>34.865021546342</v>
+      </c>
+      <c r="S28">
+        <v>0.001174784429778397</v>
+      </c>
+      <c r="T28">
+        <v>0.001174784429778398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.343811</v>
+      </c>
+      <c r="I29">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J29">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>25.01395866666667</v>
+      </c>
+      <c r="N29">
+        <v>75.041876</v>
+      </c>
+      <c r="O29">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="P29">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="Q29">
+        <v>2.866691381048444</v>
+      </c>
+      <c r="R29">
+        <v>25.800222429436</v>
+      </c>
+      <c r="S29">
+        <v>0.0008693440660758993</v>
+      </c>
+      <c r="T29">
+        <v>0.0008693440660758995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.343811</v>
+      </c>
+      <c r="I30">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J30">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.369122</v>
+      </c>
+      <c r="N30">
+        <v>76.107366</v>
+      </c>
+      <c r="O30">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="P30">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="Q30">
+        <v>2.907394401314</v>
+      </c>
+      <c r="R30">
+        <v>26.166549611826</v>
+      </c>
+      <c r="S30">
+        <v>0.0008816875395914496</v>
+      </c>
+      <c r="T30">
+        <v>0.0008816875395914497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1146036666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.343811</v>
+      </c>
+      <c r="I31">
+        <v>0.007091359362258442</v>
+      </c>
+      <c r="J31">
+        <v>0.007091359362258443</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N31">
+        <v>26.955586</v>
+      </c>
+      <c r="O31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q31">
+        <v>1.029736330916222</v>
+      </c>
+      <c r="R31">
+        <v>9.267626978246</v>
+      </c>
+      <c r="S31">
+        <v>0.0003122746922891238</v>
+      </c>
+      <c r="T31">
+        <v>0.0003122746922891238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.919493</v>
+      </c>
+      <c r="H32">
+        <v>2.758479</v>
+      </c>
+      <c r="I32">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J32">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>24.43393833333333</v>
+      </c>
+      <c r="N32">
+        <v>73.301815</v>
+      </c>
+      <c r="O32">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="P32">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="Q32">
+        <v>22.46683525993167</v>
+      </c>
+      <c r="R32">
+        <v>202.201517339385</v>
+      </c>
+      <c r="S32">
+        <v>0.006813223790271799</v>
+      </c>
+      <c r="T32">
+        <v>0.0068132237902718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.919493</v>
+      </c>
+      <c r="H33">
+        <v>2.758479</v>
+      </c>
+      <c r="I33">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J33">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N33">
+        <v>259.31276</v>
+      </c>
+      <c r="O33">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="P33">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="Q33">
+        <v>79.47875587689335</v>
+      </c>
+      <c r="R33">
+        <v>715.30880289204</v>
+      </c>
+      <c r="S33">
+        <v>0.02410248457767439</v>
+      </c>
+      <c r="T33">
+        <v>0.02410248457767439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.919493</v>
+      </c>
+      <c r="H34">
+        <v>2.758479</v>
+      </c>
+      <c r="I34">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J34">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>33.80250733333333</v>
+      </c>
+      <c r="N34">
+        <v>101.407522</v>
+      </c>
+      <c r="O34">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="P34">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="Q34">
+        <v>31.08116887544866</v>
+      </c>
+      <c r="R34">
+        <v>279.730519879038</v>
+      </c>
+      <c r="S34">
+        <v>0.009425580272506359</v>
+      </c>
+      <c r="T34">
+        <v>0.009425580272506361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.913074410896471</v>
-      </c>
-      <c r="H25">
-        <v>0.913074410896471</v>
-      </c>
-      <c r="I25">
-        <v>0.05804252324677036</v>
-      </c>
-      <c r="J25">
-        <v>0.05804252324677036</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="N25">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="O25">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="P25">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="Q25">
-        <v>7.567484343176054</v>
-      </c>
-      <c r="R25">
-        <v>7.567484343176054</v>
-      </c>
-      <c r="S25">
-        <v>0.002667137383444362</v>
-      </c>
-      <c r="T25">
-        <v>0.002667137383444362</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.919493</v>
+      </c>
+      <c r="H35">
+        <v>2.758479</v>
+      </c>
+      <c r="I35">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J35">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>25.01395866666667</v>
+      </c>
+      <c r="N35">
+        <v>75.041876</v>
+      </c>
+      <c r="O35">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="P35">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="Q35">
+        <v>23.00015989628933</v>
+      </c>
+      <c r="R35">
+        <v>207.001439066604</v>
+      </c>
+      <c r="S35">
+        <v>0.006974958189368522</v>
+      </c>
+      <c r="T35">
+        <v>0.006974958189368522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.919493</v>
+      </c>
+      <c r="H36">
+        <v>2.758479</v>
+      </c>
+      <c r="I36">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J36">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.369122</v>
+      </c>
+      <c r="N36">
+        <v>76.107366</v>
+      </c>
+      <c r="O36">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="P36">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="Q36">
+        <v>23.326730095146</v>
+      </c>
+      <c r="R36">
+        <v>209.940570856314</v>
+      </c>
+      <c r="S36">
+        <v>0.007073992869700744</v>
+      </c>
+      <c r="T36">
+        <v>0.007073992869700744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.919493</v>
+      </c>
+      <c r="H37">
+        <v>2.758479</v>
+      </c>
+      <c r="I37">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="J37">
+        <v>0.0568956952576948</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N37">
+        <v>26.955586</v>
+      </c>
+      <c r="O37">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P37">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q37">
+        <v>8.261824212632666</v>
+      </c>
+      <c r="R37">
+        <v>74.356417913694</v>
+      </c>
+      <c r="S37">
+        <v>0.002505455558172979</v>
+      </c>
+      <c r="T37">
+        <v>0.002505455558172979</v>
       </c>
     </row>
   </sheetData>
